--- a/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/c7762008-71de-41b3-bc99-68ac778cba31/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="109">
   <si>
     <t>year</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Deferred tax assets resulting from tax losses</t>
-  </si>
-  <si>
-    <t>2022 nan</t>
   </si>
   <si>
     <t>Total income tax expense</t>
@@ -762,16 +759,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>644026</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -779,16 +776,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>41620</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -796,16 +793,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>-231190</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -813,16 +810,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>454456</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -830,16 +827,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>454456</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -847,16 +844,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>454456</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -864,16 +861,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>-406236</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -881,16 +878,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>-84215</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -898,16 +895,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>231190</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -915,16 +912,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>-259261</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>2022</v>
@@ -932,16 +929,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>-259261</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>2022</v>
@@ -949,16 +946,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>-84739</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -966,16 +963,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>-344000</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -983,16 +980,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>195195</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>2022</v>
@@ -1000,16 +997,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>110456</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -1020,13 +1017,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>2023</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -1034,16 +1031,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -1051,10 +1048,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>644026</v>
@@ -1068,10 +1065,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>41620</v>
@@ -1085,10 +1082,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>-231190</v>
@@ -1102,10 +1099,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>454456</v>
@@ -1119,10 +1116,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>454456</v>
@@ -1136,10 +1133,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>454456</v>
@@ -1153,10 +1150,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>-406236</v>
@@ -1170,10 +1167,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>-84215</v>
@@ -1187,10 +1184,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>231190</v>
@@ -1204,10 +1201,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>-259261</v>
@@ -1221,10 +1218,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>-259261</v>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>-84739</v>
@@ -1255,10 +1252,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>-344000</v>
@@ -1272,10 +1269,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>195195</v>
@@ -1289,10 +1286,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>110456</v>
@@ -1309,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -1323,10 +1320,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1373,7 +1370,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>617441</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>125801</v>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>179243</v>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1054069</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>1976554</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>528184</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>100957</v>
@@ -1492,7 +1489,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>982947</v>
@@ -1526,7 +1523,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>1612088</v>
@@ -1591,10 +1588,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>215161</v>
@@ -1605,10 +1602,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>167803</v>
@@ -1619,10 +1616,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>382964</v>
@@ -1633,10 +1630,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>22510</v>
@@ -1647,10 +1644,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>22510</v>
@@ -1664,7 +1661,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1675,10 +1672,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1689,10 +1686,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>188013</v>
@@ -1703,10 +1700,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>118927</v>
@@ -1717,10 +1714,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>306940</v>
@@ -1731,10 +1728,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>70539</v>
@@ -1745,10 +1742,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>70539</v>
@@ -1762,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1773,10 +1770,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1820,10 +1817,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>88381</v>
@@ -1840,10 +1837,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>88381</v>
@@ -1860,10 +1857,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>88381</v>
@@ -1880,10 +1877,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>88381</v>
@@ -1900,10 +1897,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>82768</v>
@@ -1920,10 +1917,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>82768</v>
@@ -1940,10 +1937,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>82769</v>
@@ -1960,10 +1957,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>82769</v>
@@ -2016,22 +2013,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>3000000</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>2022</v>
@@ -2039,22 +2036,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>3000000</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>2023</v>
@@ -2062,22 +2059,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>100335</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>2022</v>
@@ -2085,22 +2082,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>100335</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>2023</v>
@@ -2108,22 +2105,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>3000000</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>2022</v>
@@ -2131,22 +2128,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>3000000</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7">
         <v>2023</v>
@@ -2154,22 +2151,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>200000</v>
       </c>
       <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8">
         <v>2022</v>
@@ -2177,22 +2174,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>200000</v>
       </c>
       <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>2023</v>
@@ -2230,10 +2227,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>18880341</v>
@@ -2244,10 +2241,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>16471157</v>
@@ -2258,10 +2255,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>2409184</v>
@@ -2272,10 +2269,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>18880341</v>
@@ -2286,10 +2283,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>18880341</v>
@@ -2303,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2314,10 +2311,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2328,10 +2325,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>16298851</v>
@@ -2342,10 +2339,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>14221714</v>
@@ -2356,10 +2353,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>2077137</v>
@@ -2370,10 +2367,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>16298851</v>
@@ -2384,10 +2381,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>16298851</v>
@@ -2401,7 +2398,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2412,10 +2409,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2456,10 +2453,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>140</v>
@@ -2470,10 +2467,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -2487,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2498,10 +2495,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2512,10 +2509,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>59928</v>
@@ -2526,10 +2523,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>59928</v>
@@ -2543,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2554,10 +2551,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2601,10 +2598,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>94899</v>
@@ -2621,10 +2618,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>94899</v>
@@ -2641,10 +2638,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>-63946</v>
@@ -2661,10 +2658,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>-25424</v>
@@ -2681,10 +2678,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>-89370</v>
@@ -2701,10 +2698,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7">
         <v>5529</v>
@@ -2721,10 +2718,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>676</v>
@@ -2741,10 +2738,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>676</v>
@@ -2761,10 +2758,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>-69270</v>
@@ -2781,10 +2778,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>-41365</v>
@@ -2801,10 +2798,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>-110635</v>
@@ -2821,10 +2818,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
       </c>
       <c r="C13">
         <v>-109959</v>
@@ -3603,13 +3600,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3623,15 +3620,18 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>502229</v>
@@ -3639,16 +3639,19 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3656,16 +3659,19 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3673,16 +3679,19 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>502229</v>
@@ -3690,16 +3699,19 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>129483</v>
@@ -3707,16 +3719,19 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3724,16 +3739,19 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>129483</v>
@@ -3741,16 +3759,19 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>631712</v>
@@ -3758,16 +3779,19 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1965297</v>
@@ -3775,16 +3799,19 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>589589</v>
@@ -3792,16 +3819,19 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>-7302</v>
@@ -3809,16 +3839,19 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3826,16 +3859,19 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>49425</v>
@@ -3843,16 +3879,19 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>631712</v>
@@ -3860,16 +3899,19 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>365552</v>
@@ -3877,16 +3919,19 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>-23330</v>
@@ -3894,16 +3939,19 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>-272415</v>
@@ -3911,16 +3959,19 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>69807</v>
@@ -3928,16 +3979,19 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>305723</v>
@@ -3945,16 +3999,19 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>121749</v>
@@ -3962,16 +4019,19 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>427472</v>
@@ -3979,16 +4039,19 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>357665</v>
@@ -3996,16 +4059,19 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1232198</v>
@@ -4013,16 +4079,19 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>369659</v>
@@ -4030,16 +4099,19 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>-6056</v>
@@ -4047,16 +4119,19 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>-23330</v>
@@ -4064,16 +4139,19 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>17392</v>
@@ -4081,16 +4159,19 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>357665</v>
@@ -4098,7 +4179,10 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
         <v>2022</v>
       </c>
     </row>
@@ -4140,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>4874</v>
@@ -4149,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -4160,7 +4244,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>29444</v>
@@ -4169,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -4180,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>113084</v>
@@ -4189,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -4200,7 +4284,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>100191</v>
@@ -4209,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>2022</v>
@@ -4220,7 +4304,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>35027</v>
@@ -4229,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -4240,7 +4324,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>394164</v>
@@ -4249,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -4257,10 +4341,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
       </c>
       <c r="C8">
         <v>676784</v>
@@ -4269,7 +4353,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -4280,7 +4364,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>-13498</v>
@@ -4300,7 +4384,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2262</v>
@@ -4320,7 +4404,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>160</v>
@@ -4340,7 +4424,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>-18367</v>
@@ -4360,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>52546</v>
@@ -4380,7 +4464,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>-272415</v>
@@ -4397,10 +4481,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
       </c>
       <c r="C15">
         <v>-249312</v>
@@ -4420,7 +4504,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>-8624</v>
@@ -4429,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2022</v>
@@ -4440,7 +4524,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>31706</v>
@@ -4449,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>2022</v>
@@ -4460,7 +4544,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>113244</v>
@@ -4469,7 +4553,7 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>2022</v>
@@ -4480,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>81824</v>
@@ -4489,7 +4573,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>2022</v>
@@ -4500,7 +4584,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>87573</v>
@@ -4509,7 +4593,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>2022</v>
@@ -4520,7 +4604,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>121749</v>
@@ -4529,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>2022</v>
@@ -4537,10 +4621,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
       <c r="C22">
         <v>427472</v>
@@ -4549,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>2022</v>
@@ -4593,22 +4677,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>904929</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -4616,22 +4700,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>38023</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>2023</v>
@@ -4639,22 +4723,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>-63990</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>2023</v>
@@ -4662,22 +4746,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>878962</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>2023</v>
@@ -4685,22 +4769,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>878962</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>2023</v>
@@ -4708,22 +4792,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>74198</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>2023</v>
@@ -4731,22 +4815,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>-161642</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>2023</v>
@@ -4754,22 +4838,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>791518</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>2023</v>
@@ -4777,22 +4861,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>-756862</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>2023</v>
@@ -4800,22 +4884,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>-86981</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>2023</v>
@@ -4823,22 +4907,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>63990</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>2023</v>
@@ -4846,22 +4930,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>-779853</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>2023</v>
@@ -4869,22 +4953,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>-779853</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>2023</v>
@@ -4892,22 +4976,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>-65245</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>2023</v>
@@ -4915,22 +4999,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>161642</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>2023</v>
@@ -4938,22 +5022,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>-683456</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>2023</v>
@@ -4961,22 +5045,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>99109</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>2022</v>
@@ -4984,22 +5068,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>108062</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19">
         <v>2023</v>
@@ -5007,22 +5091,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>796943</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>2023</v>
@@ -5030,22 +5114,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>14005</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <v>2023</v>
@@ -5053,22 +5137,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>-130723</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>2023</v>
@@ -5076,22 +5160,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>680225</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>2023</v>
@@ -5099,22 +5183,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>680225</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>2023</v>
@@ -5122,22 +5206,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>58737</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>2023</v>
@@ -5145,22 +5229,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>-2668</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>2023</v>
@@ -5168,22 +5252,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>736294</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>2023</v>
@@ -5191,22 +5275,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>-423381</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>2023</v>
@@ -5214,22 +5298,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>-75729</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29">
         <v>2023</v>
@@ -5237,22 +5321,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>129228</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30">
         <v>2023</v>
@@ -5260,22 +5344,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>-369882</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31">
         <v>2023</v>
@@ -5283,22 +5367,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>-369882</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>2023</v>
@@ -5306,22 +5390,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>-58901</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33">
         <v>2023</v>
@@ -5329,22 +5413,22 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>2668</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34">
         <v>2023</v>
@@ -5352,22 +5436,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>-426115</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35">
         <v>2023</v>
@@ -5375,22 +5459,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>310343</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>2022</v>
@@ -5398,22 +5482,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>310179</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>2023</v>
@@ -5421,22 +5505,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>2023</v>
@@ -5444,22 +5528,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>7900</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39">
         <v>2023</v>
@@ -5467,22 +5551,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40">
         <v>2023</v>
@@ -5490,22 +5574,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41">
         <v>2023</v>
@@ -5513,22 +5597,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42">
         <v>2023</v>
@@ -5536,22 +5620,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <v>2023</v>
@@ -5559,22 +5643,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>-4095</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44">
         <v>2023</v>
@@ -5582,22 +5666,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45">
         <v>2023</v>
@@ -5605,22 +5689,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46">
         <v>2023</v>
@@ -5628,22 +5712,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>-8908</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47">
         <v>2023</v>
@@ -5651,22 +5735,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48">
         <v>2023</v>
@@ -5674,22 +5758,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>2023</v>
@@ -5697,22 +5781,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>2023</v>
@@ -5720,22 +5804,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>-8948</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51">
         <v>2023</v>
@@ -5743,22 +5827,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>4095</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G52">
         <v>2023</v>
@@ -5766,22 +5850,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G53">
         <v>2023</v>
@@ -5789,22 +5873,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>47468</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G54">
         <v>2022</v>
@@ -5812,22 +5896,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>38520</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55">
         <v>2023</v>
@@ -5835,22 +5919,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>1878506</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56">
         <v>2023</v>
@@ -5858,22 +5942,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>59928</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57">
         <v>2023</v>
@@ -5881,22 +5965,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>-194713</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58">
         <v>2023</v>
@@ -5904,22 +5988,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59">
         <v>1743721</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59">
         <v>2023</v>
@@ -5927,22 +6011,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>1743721</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G60">
         <v>2023</v>
@@ -5950,22 +6034,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61">
         <v>132935</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61">
         <v>2023</v>
@@ -5973,22 +6057,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62">
         <v>-168405</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G62">
         <v>2023</v>
@@ -5996,22 +6080,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>1708251</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G63">
         <v>2023</v>
@@ -6019,22 +6103,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>-1308401</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G64">
         <v>2023</v>
@@ -6042,22 +6126,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>-171618</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G65">
         <v>2023</v>
@@ -6065,22 +6149,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>193218</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G66">
         <v>2023</v>
@@ -6088,22 +6172,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>-1286801</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G67">
         <v>2023</v>
@@ -6111,22 +6195,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>-1286801</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G68">
         <v>2023</v>
@@ -6134,22 +6218,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69">
         <v>-133094</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G69">
         <v>2023</v>
@@ -6157,22 +6241,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70">
         <v>168405</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G70">
         <v>2023</v>
@@ -6180,22 +6264,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71">
         <v>-1251490</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G71">
         <v>2023</v>
@@ -6203,22 +6287,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72">
         <v>456920</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G72">
         <v>2022</v>
@@ -6226,22 +6310,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73">
         <v>456761</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73">
         <v>2023</v>
@@ -6300,7 +6384,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>350581</v>
@@ -6317,7 +6401,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>974532</v>
@@ -6334,10 +6418,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1325113</v>
@@ -6357,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -6374,10 +6458,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6394,10 +6478,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
       </c>
       <c r="C7">
         <v>-310598</v>
@@ -6414,7 +6498,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>333149</v>
@@ -6431,7 +6515,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>1242637</v>
@@ -6448,10 +6532,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>1575786</v>
@@ -6471,7 +6555,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -6488,10 +6572,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6508,10 +6592,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
       </c>
       <c r="C13">
         <v>-293162</v>
